--- a/RCN.xlsx
+++ b/RCN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FF671-8E59-493A-9CD5-363A5E37E961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883706EE-3213-427D-BA83-9B3D0071E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_11.2" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>Fuente: SICT. Subsecretaria de Infraestructura.</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,30 +509,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N23"/>
+  <dimension ref="B2:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18">
       <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -572,8 +572,11 @@
       <c r="N4" s="2">
         <v>2023</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O4" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -610,11 +613,14 @@
       <c r="M5" s="4">
         <v>402621.94199999981</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>407783.05999999994</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O5" s="5">
+        <v>405273.07699999993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -629,9 +635,10 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -668,11 +675,14 @@
       <c r="M7" s="4">
         <v>51622.809000000001</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>51819.299999999996</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O7" s="5">
+        <v>52043.93099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
@@ -709,11 +719,14 @@
       <c r="M8" s="7">
         <v>11077.783000000001</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>11138.99</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O8" s="8">
+        <v>11495.898999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -750,11 +763,14 @@
       <c r="M9" s="4">
         <v>40545.025999999998</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>40680.31</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O9" s="5">
+        <v>40548.031999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
@@ -791,11 +807,14 @@
       <c r="M10" s="7">
         <v>131625.68999999994</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>138946.04999999999</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O10" s="8">
+        <v>138488.06599999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -832,11 +851,14 @@
       <c r="M11" s="4">
         <v>161053.93299999996</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>159175.54</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O11" s="5">
+        <v>157486.07999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -873,11 +895,14 @@
       <c r="M12" s="7">
         <v>58319.509999999886</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>57842.17</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O12" s="8">
+        <v>57255.000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -892,9 +917,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -931,11 +957,14 @@
       <c r="M14" s="7">
         <v>176916.77799999999</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>184969.49</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O14" s="8">
+        <v>184946.71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -972,11 +1001,14 @@
       <c r="M15" s="4">
         <v>131585.84</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>129286.935</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O15" s="5">
+        <v>127692.65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1013,11 +1045,14 @@
       <c r="M16" s="7">
         <v>35799.813999999991</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>35684.474000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O16" s="8">
+        <v>35378.720000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1054,11 +1089,14 @@
       <c r="M17" s="4">
         <v>58319.509999999886</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>57842.17</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O17" s="5">
+        <v>57255.000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
@@ -1073,9 +1111,10 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1112,11 +1151,14 @@
       <c r="M19" s="4">
         <v>161088.59099999999</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>168903.73</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O19" s="5">
+        <v>168546.454</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
@@ -1153,11 +1195,14 @@
       <c r="M20" s="10">
         <v>15828.187000000002</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>16065.76</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="O20" s="11">
+        <v>16400.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1174,13 +1219,13 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
